--- a/biology/Écologie/Oligolectisme/Oligolectisme.xlsx
+++ b/biology/Écologie/Oligolectisme/Oligolectisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'oligolectisme (du grec ὀλίγος oligos « peu abondant » et λέγειν legein « collecter ») est, en écologie de la pollinisation, le comportement des espèces d'abeilles qui butinent de manière spécialisée un seul type de pollen, typiquement un seul genre de plantes à fleur.
 La spécialisation peut s'étendre occasionnellement à plusieurs genres d'une même famille, ou se réduire à une seule espèce (monolectisme). Oligolectisme et monolectisme s'opposent au polylectisme des abeilles qui butinent toutes les fleurs.
@@ -514,7 +526,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des tentatives d'en déterminer les causes suggère une limitation des capacités d'apprentissage et de perception des abeilles adultes (c'est-à-dire qu'elles ne reconnaissent pas les autres fleurs comme sources de nourriture potentielles), plutôt qu'une incapacité des larves à digérer et se développer sur d'autres types de pollen. Cependant, quelques plantes dont le pollen est toxique (comme les Zigadenus) sont butinées par les abeilles oligolectiques, ce qui ramène à la seconde hypothèse.
 </t>
